--- a/TeamAnalysis/matrika1.xlsx
+++ b/TeamAnalysis/matrika1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aljazostrez/Documents/GitHub/PKP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aljazostrez/Documents/GitHub/respo/TeamAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5EDA6E-3D07-194D-ADF9-E72D315469C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08EA23D-50CD-6241-9DB6-B124186CF170}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Direktor družbe</t>
   </si>
@@ -128,12 +128,6 @@
   </si>
   <si>
     <t>Vodja računovodstva</t>
-  </si>
-  <si>
-    <t>faksn</t>
-  </si>
-  <si>
-    <t>jlaksdj</t>
   </si>
 </sst>
 </file>
@@ -499,7 +493,7 @@
   <dimension ref="A1:AK41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -618,8 +612,8 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
+      <c r="B2">
+        <v>70</v>
       </c>
       <c r="C2">
         <v>91</v>
@@ -731,8 +725,8 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
+      <c r="B3">
+        <v>67</v>
       </c>
       <c r="C3">
         <v>63</v>
